--- a/GLOBAL/Impactos Cambio Climático/Ecosistemas/Evolución del Mínimo de Hielo Ártico 1979-2018.xlsx
+++ b/GLOBAL/Impactos Cambio Climático/Ecosistemas/Evolución del Mínimo de Hielo Ártico 1979-2018.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\GLOBAL\Impactos Cambio Climático\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\GLOBAL\Impactos Cambio Climático\Ecosistemas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFA05B9-FE11-444B-A2A8-36424DAF03A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527658AD-196B-4ABF-BC3C-FC2879D28E27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
